--- a/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:52:02+00:00</t>
+    <t>2024-04-30T08:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T08:40:24+00:00</t>
+    <t>2024-11-22T13:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour définir le dossier SDO</t>
+    <t>Profil SDO utilisé pour véhiculer les données de l’individu, la décision et l’évaluation contenus dans le document CDA</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1495,7 +1495,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>

--- a/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="559">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-22T13:34:24+00:00</t>
+    <t>2025-01-30T16:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -331,17 +331,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>DocumentReference.implicitRules</t>
   </si>
   <si>
@@ -361,9 +354,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DocumentReference.language</t>
   </si>
   <si>
@@ -441,6 +431,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>DocumentReference.extension</t>
   </si>
   <si>
@@ -461,6 +454,137 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DocumentReference.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Master Version Specific Identifier</t>
+  </si>
+  <si>
+    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
+  </si>
+  <si>
+    <t>CDA Document Id extension and root.</t>
+  </si>
+  <si>
+    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>TXA-12</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>identifiants métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
+  </si>
+  <si>
+    <t>Other identifiers associated with the document, including version independent identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>.id / .setId</t>
+  </si>
+  <si>
+    <t>TXA-16?</t>
+  </si>
+  <si>
+    <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision</t>
+  </si>
+  <si>
+    <t>idDecision</t>
+  </si>
+  <si>
+    <t>Other identifiers for the document</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -468,134 +592,6 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DocumentReference.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Master Version Specific Identifier</t>
-  </si>
-  <si>
-    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
-  </si>
-  <si>
-    <t>CDA Document Id extension and root.</t>
-  </si>
-  <si>
-    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>TXA-12</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>identifiants métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
-  </si>
-  <si>
-    <t>Other identifiers associated with the document, including version independent identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:use}
-</t>
-  </si>
-  <si>
-    <t>.id / .setId</t>
-  </si>
-  <si>
-    <t>TXA-16?</t>
-  </si>
-  <si>
-    <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier:idDecision</t>
-  </si>
-  <si>
-    <t>idDecision</t>
-  </si>
-  <si>
-    <t>Other identifiers for the document</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier:idDecision.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier:idDecision.extension</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -745,15 +741,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -784,10 +772,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -965,9 +949,6 @@
     <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>DocumentEntry.class</t>
   </si>
   <si>
@@ -984,9 +965,6 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1319,13 +1297,6 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1357,9 +1328,6 @@
     <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Processors of the data need to be able to know how to interpret the data.</t>
   </si>
   <si>
@@ -1573,9 +1541,6 @@
   </si>
   <si>
     <t>derived from the IHE Profile or Implementation Guide templateID</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
   </si>
   <si>
     <t>DocumentEntry.formatCode</t>
@@ -1679,9 +1644,6 @@
 @value</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>DocumentEntry.serviceStartTime, DocumentEntry.serviceStopTime</t>
   </si>
   <si>
@@ -1692,9 +1654,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>XDS Facility Type.</t>
@@ -2607,11 +2566,11 @@
         <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
       </c>
@@ -2619,7 +2578,7 @@
         <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>79</v>
@@ -2636,10 +2595,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2662,16 +2621,16 @@
         <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2721,7 +2680,7 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
@@ -2730,11 +2689,11 @@
         <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
       </c>
@@ -2742,7 +2701,7 @@
         <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>79</v>
@@ -2759,10 +2718,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2785,16 +2744,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2820,32 +2779,32 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
@@ -2853,11 +2812,11 @@
         <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
       </c>
@@ -2865,7 +2824,7 @@
         <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>79</v>
@@ -2882,14 +2841,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2908,16 +2867,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2967,7 +2926,7 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
@@ -2976,11 +2935,11 @@
         <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
       </c>
@@ -2988,7 +2947,7 @@
         <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3005,14 +2964,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3031,16 +2990,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3090,7 +3049,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3111,7 +3070,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3128,14 +3087,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3154,16 +3113,16 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3201,19 +3160,19 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3222,10 +3181,10 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3234,7 +3193,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -3251,14 +3210,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3277,19 +3236,19 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>79</v>
@@ -3326,19 +3285,19 @@
         <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3347,10 +3306,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3359,7 +3318,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3376,10 +3335,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3402,19 +3361,19 @@
         <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -3463,7 +3422,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3472,39 +3431,39 @@
         <v>92</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AP11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3515,7 +3474,7 @@
         <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3527,13 +3486,13 @@
         <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3572,17 +3531,17 @@
         <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3591,42 +3550,42 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3648,13 +3607,13 @@
         <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3705,7 +3664,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3714,39 +3673,39 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3769,13 +3728,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3826,7 +3785,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3847,7 +3806,7 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3864,14 +3823,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3890,16 +3849,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3937,19 +3896,19 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3958,10 +3917,10 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -3970,7 +3929,7 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3987,10 +3946,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4013,19 +3972,19 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -4035,68 +3994,68 @@
         <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4104,7 +4063,7 @@
         <v>79</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>79</v>
@@ -4112,10 +4071,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4138,19 +4097,19 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -4175,61 +4134,61 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>79</v>
@@ -4237,10 +4196,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4263,19 +4222,19 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4288,73 +4247,73 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>79</v>
@@ -4362,10 +4321,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4388,16 +4347,16 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4411,73 +4370,73 @@
         <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>79</v>
@@ -4485,10 +4444,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4511,17 +4470,15 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4570,37 +4527,37 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP20" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>79</v>
@@ -4608,10 +4565,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4634,16 +4591,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4693,7 +4650,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4702,11 +4659,11 @@
         <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4714,7 +4671,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4723,7 +4680,7 @@
         <v>79</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>79</v>
@@ -4731,13 +4688,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
@@ -4759,13 +4716,13 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4816,7 +4773,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4825,39 +4782,39 @@
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4880,13 +4837,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4937,7 +4894,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4958,7 +4915,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4975,14 +4932,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5001,16 +4958,16 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5048,19 +5005,19 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5069,10 +5026,10 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
@@ -5081,7 +5038,7 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5098,10 +5055,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5124,19 +5081,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5146,7 +5103,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -5161,53 +5118,53 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5215,7 +5172,7 @@
         <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>79</v>
@@ -5223,10 +5180,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5249,19 +5206,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5286,61 +5243,61 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>79</v>
@@ -5348,10 +5305,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5374,19 +5331,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5399,73 +5356,73 @@
         <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>79</v>
@@ -5473,10 +5430,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5499,16 +5456,16 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5522,73 +5479,73 @@
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>79</v>
@@ -5596,10 +5553,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5622,17 +5579,15 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5681,37 +5636,37 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>79</v>
@@ -5719,10 +5674,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5745,16 +5700,16 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5804,7 +5759,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5813,11 +5768,11 @@
         <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5825,7 +5780,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5834,7 +5789,7 @@
         <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>79</v>
@@ -5842,10 +5797,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5868,16 +5823,16 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5903,72 +5858,72 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AQ31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5991,16 +5946,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6026,61 +5981,61 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>79</v>
@@ -6088,10 +6043,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6114,16 +6069,16 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6149,76 +6104,76 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AQ33" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AQ33" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6237,16 +6192,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6272,13 +6227,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -6296,7 +6251,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6305,39 +6260,39 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6360,17 +6315,15 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6419,52 +6372,52 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6483,16 +6436,16 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6542,34 +6495,34 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AL36" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>79</v>
@@ -6580,10 +6533,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6606,16 +6559,16 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6665,7 +6618,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6674,39 +6627,39 @@
         <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6729,16 +6682,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6788,48 +6741,48 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AN38" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6852,16 +6805,16 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6911,7 +6864,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6920,19 +6873,19 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6949,10 +6902,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6975,16 +6928,16 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7034,7 +6987,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7043,19 +6996,19 @@
         <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7067,15 +7020,15 @@
         <v>79</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7098,13 +7051,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7155,7 +7108,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7176,7 +7129,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7193,14 +7146,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7219,16 +7172,16 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7266,19 +7219,19 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7287,10 +7240,10 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -7299,7 +7252,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7316,14 +7269,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7342,19 +7295,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7403,7 +7356,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7412,10 +7365,10 @@
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7424,7 +7377,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7441,10 +7394,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7467,16 +7420,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7502,13 +7455,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7526,28 +7479,28 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AM44" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7559,15 +7512,15 @@
         <v>79</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7590,17 +7543,15 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7649,48 +7600,48 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ45" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ45" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7713,19 +7664,19 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7774,48 +7725,48 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="AQ46" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7838,19 +7789,19 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7875,13 +7826,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7899,7 +7850,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7908,39 +7859,39 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7963,13 +7914,13 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8020,7 +7971,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>92</v>
@@ -8029,19 +7980,19 @@
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8058,10 +8009,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8084,13 +8035,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8141,7 +8092,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8162,7 +8113,7 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8179,14 +8130,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8205,16 +8156,16 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8252,19 +8203,19 @@
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8273,10 +8224,10 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -8285,7 +8236,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8302,14 +8253,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8328,19 +8279,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -8389,7 +8340,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8398,10 +8349,10 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -8410,7 +8361,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8427,10 +8378,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8453,17 +8404,15 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8512,48 +8461,48 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="AQ52" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8576,13 +8525,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8633,7 +8582,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8654,7 +8603,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8671,14 +8620,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8697,16 +8646,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8744,19 +8693,19 @@
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8765,10 +8714,10 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8777,7 +8726,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8794,10 +8743,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8820,19 +8769,17 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8845,7 +8792,7 @@
         <v>79</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>79</v>
@@ -8857,13 +8804,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8881,7 +8828,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8890,11 +8837,11 @@
         <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8902,7 +8849,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8911,7 +8858,7 @@
         <v>79</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>79</v>
@@ -8919,10 +8866,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8945,19 +8892,17 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8970,7 +8915,7 @@
         <v>79</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>79</v>
@@ -8982,13 +8927,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -9006,7 +8951,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9015,11 +8960,11 @@
         <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
@@ -9027,7 +8972,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9044,10 +8989,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9070,19 +9015,19 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9131,7 +9076,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9140,11 +9085,11 @@
         <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9152,7 +9097,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9161,7 +9106,7 @@
         <v>79</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>79</v>
@@ -9169,10 +9114,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9195,19 +9140,19 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9220,7 +9165,7 @@
         <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>79</v>
@@ -9256,7 +9201,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9265,11 +9210,11 @@
         <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9277,7 +9222,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9286,7 +9231,7 @@
         <v>79</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>79</v>
@@ -9294,10 +9239,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9320,19 +9265,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9381,7 +9326,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9390,11 +9335,11 @@
         <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9402,7 +9347,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9419,10 +9364,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9445,19 +9390,19 @@
         <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9506,7 +9451,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9515,11 +9460,11 @@
         <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9527,7 +9472,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9544,10 +9489,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9570,19 +9515,17 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9595,7 +9538,7 @@
         <v>79</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>79</v>
@@ -9631,7 +9574,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9640,11 +9583,11 @@
         <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9652,7 +9595,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9669,10 +9612,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9695,17 +9638,17 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9754,7 +9697,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9763,11 +9706,11 @@
         <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9775,7 +9718,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9792,10 +9735,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9818,16 +9761,16 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9853,13 +9796,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9877,48 +9820,48 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AQ63" t="s" s="2">
-        <v>505</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9941,16 +9884,16 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10000,7 +9943,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10009,11 +9952,11 @@
         <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
@@ -10021,7 +9964,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -10038,10 +9981,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10064,13 +10007,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10121,7 +10064,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10142,7 +10085,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -10159,14 +10102,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10185,16 +10128,16 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10232,19 +10175,19 @@
         <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10253,10 +10196,10 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10265,7 +10208,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10282,14 +10225,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10308,19 +10251,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10369,7 +10312,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10378,10 +10321,10 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -10390,7 +10333,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10407,10 +10350,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10433,17 +10376,15 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10492,7 +10433,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10501,25 +10442,25 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK68" t="s" s="2">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10530,10 +10471,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10556,16 +10497,16 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10591,13 +10532,13 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10615,7 +10556,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10624,19 +10565,19 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10645,18 +10586,18 @@
         <v>79</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AQ69" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10679,17 +10620,15 @@
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10738,7 +10677,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10747,39 +10686,39 @@
         <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AQ70" t="s" s="2">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10802,17 +10741,15 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10837,13 +10774,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10861,7 +10798,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10870,39 +10807,39 @@
         <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ71" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AQ71" t="s" s="2">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10925,19 +10862,19 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10962,13 +10899,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10986,7 +10923,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10995,39 +10932,39 @@
         <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ72" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AQ72" t="s" s="2">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11050,17 +10987,15 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11109,7 +11044,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11118,22 +11053,22 @@
         <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ73" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11142,15 +11077,15 @@
         <v>79</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11173,16 +11108,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11232,7 +11167,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11241,22 +11176,22 @@
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11265,7 +11200,7 @@
         <v>79</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:13:12+00:00</t>
+    <t>2025-10-14T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2051,17 +2051,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.65234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2070,29 +2070,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.0" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.8671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
